--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H2">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I2">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J2">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6041275</v>
+        <v>2.4249555</v>
       </c>
       <c r="N2">
-        <v>3.208255</v>
+        <v>4.849911</v>
       </c>
       <c r="O2">
-        <v>0.087560868457266</v>
+        <v>0.1414947904552067</v>
       </c>
       <c r="P2">
-        <v>0.07010630203157292</v>
+        <v>0.1135050984851495</v>
       </c>
       <c r="Q2">
-        <v>0.196611491165</v>
+        <v>1.7578720665495</v>
       </c>
       <c r="R2">
-        <v>1.17966894699</v>
+        <v>7.031488266198</v>
       </c>
       <c r="S2">
-        <v>0.05779911425196361</v>
+        <v>0.08184355702079261</v>
       </c>
       <c r="T2">
-        <v>0.04627731807940173</v>
+        <v>0.05422390218038106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H3">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I3">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J3">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>22.613782</v>
       </c>
       <c r="O3">
-        <v>0.411455737573497</v>
+        <v>0.4398338231347236</v>
       </c>
       <c r="P3">
-        <v>0.4941529370228199</v>
+        <v>0.5292426094069979</v>
       </c>
       <c r="Q3">
-        <v>0.9238936015373334</v>
+        <v>5.464311365279333</v>
       </c>
       <c r="R3">
-        <v>8.315042413836</v>
+        <v>32.785868191676</v>
       </c>
       <c r="S3">
-        <v>0.2716028016241431</v>
+        <v>0.2544091161772898</v>
       </c>
       <c r="T3">
-        <v>0.3261913976888524</v>
+        <v>0.2528309288761098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.724909</v>
+      </c>
+      <c r="H4">
+        <v>1.449818</v>
+      </c>
+      <c r="I4">
+        <v>0.5784209917375155</v>
+      </c>
+      <c r="J4">
+        <v>0.477722171991027</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.122566</v>
-      </c>
-      <c r="H4">
-        <v>0.367698</v>
-      </c>
-      <c r="I4">
-        <v>0.6601021126254865</v>
-      </c>
-      <c r="J4">
-        <v>0.6601021126254866</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.2237333333333333</v>
+        <v>0.1035233333333333</v>
       </c>
       <c r="N4">
-        <v>0.6712</v>
+        <v>0.31057</v>
       </c>
       <c r="O4">
-        <v>0.01221242386874213</v>
+        <v>0.006040528313704939</v>
       </c>
       <c r="P4">
-        <v>0.01466696067600354</v>
+        <v>0.007268438211862629</v>
       </c>
       <c r="Q4">
-        <v>0.02742209973333334</v>
+        <v>0.07504499604333334</v>
       </c>
       <c r="R4">
-        <v>0.2467988976</v>
+        <v>0.45026997626</v>
       </c>
       <c r="S4">
-        <v>0.008061446796034599</v>
+        <v>0.003493968377831753</v>
       </c>
       <c r="T4">
-        <v>0.009681691728024872</v>
+        <v>0.003472294089553591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H5">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I5">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J5">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.593577999999999</v>
+        <v>6.260847500000001</v>
       </c>
       <c r="N5">
-        <v>15.187156</v>
+        <v>12.521695</v>
       </c>
       <c r="O5">
-        <v>0.4144934142566529</v>
+        <v>0.3653169326548487</v>
       </c>
       <c r="P5">
-        <v>0.3318674312162265</v>
+        <v>0.2930520218156591</v>
       </c>
       <c r="Q5">
-        <v>0.9307144811479999</v>
+        <v>4.538544700377501</v>
       </c>
       <c r="R5">
-        <v>5.584286886888</v>
+        <v>18.15417880151</v>
       </c>
       <c r="S5">
-        <v>0.2736079784201675</v>
+        <v>0.2113069824847247</v>
       </c>
       <c r="T5">
-        <v>0.2190663924574244</v>
+        <v>0.1399974483681385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H6">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I6">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J6">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.310623666666667</v>
+        <v>0.6812176666666666</v>
       </c>
       <c r="N6">
-        <v>3.931871</v>
+        <v>2.043653</v>
       </c>
       <c r="O6">
-        <v>0.07154004059775775</v>
+        <v>0.03974866796499352</v>
       </c>
       <c r="P6">
-        <v>0.08591864919564766</v>
+        <v>0.04782871995681392</v>
       </c>
       <c r="Q6">
-        <v>0.1606379003286667</v>
+        <v>0.4938208175256666</v>
       </c>
       <c r="R6">
-        <v>1.445741102958</v>
+        <v>2.962924905154</v>
       </c>
       <c r="S6">
-        <v>0.04722373193589296</v>
+        <v>0.02299146394455677</v>
       </c>
       <c r="T6">
-        <v>0.05671508184797509</v>
+        <v>0.02284883998131972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H7">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I7">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J7">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05015166666666667</v>
+        <v>0.1296543333333333</v>
       </c>
       <c r="N7">
-        <v>0.150455</v>
+        <v>0.388963</v>
       </c>
       <c r="O7">
-        <v>0.002737515246084025</v>
+        <v>0.007565257476522569</v>
       </c>
       <c r="P7">
-        <v>0.003287719857729608</v>
+        <v>0.009103112123517158</v>
       </c>
       <c r="Q7">
-        <v>0.006146889176666667</v>
+        <v>0.09398759312233335</v>
       </c>
       <c r="R7">
-        <v>0.05532200259</v>
+        <v>0.5639255587340001</v>
       </c>
       <c r="S7">
-        <v>0.001807039597284544</v>
+        <v>0.004375903732319838</v>
       </c>
       <c r="T7">
-        <v>0.002170230823808078</v>
+        <v>0.004348758495524466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H8">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I8">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J8">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6041275</v>
+        <v>2.4249555</v>
       </c>
       <c r="N8">
-        <v>3.208255</v>
+        <v>4.849911</v>
       </c>
       <c r="O8">
-        <v>0.087560868457266</v>
+        <v>0.1414947904552067</v>
       </c>
       <c r="P8">
-        <v>0.07010630203157292</v>
+        <v>0.1135050984851495</v>
       </c>
       <c r="Q8">
-        <v>0.1012386253616667</v>
+        <v>1.281215538603</v>
       </c>
       <c r="R8">
-        <v>0.6074317521700001</v>
+        <v>7.687293231617999</v>
       </c>
       <c r="S8">
-        <v>0.02976175420530239</v>
+        <v>0.0596512334344141</v>
       </c>
       <c r="T8">
-        <v>0.0238289839521712</v>
+        <v>0.05928119630476848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H9">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I9">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J9">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>22.613782</v>
       </c>
       <c r="O9">
-        <v>0.411455737573497</v>
+        <v>0.4398338231347236</v>
       </c>
       <c r="P9">
-        <v>0.4941529370228199</v>
+        <v>0.5292426094069979</v>
       </c>
       <c r="Q9">
-        <v>0.4757286445764445</v>
+        <v>3.982633754857333</v>
       </c>
       <c r="R9">
-        <v>4.281557801188</v>
+        <v>35.843703793716</v>
       </c>
       <c r="S9">
-        <v>0.1398529359493539</v>
+        <v>0.1854247069574338</v>
       </c>
       <c r="T9">
-        <v>0.1679615393339675</v>
+        <v>0.2764116805308881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.528346</v>
+      </c>
+      <c r="H10">
+        <v>1.585038</v>
+      </c>
+      <c r="I10">
+        <v>0.4215790082624845</v>
+      </c>
+      <c r="J10">
+        <v>0.522277828008973</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.06311133333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.189334</v>
-      </c>
-      <c r="I10">
-        <v>0.3398978873745135</v>
-      </c>
-      <c r="J10">
-        <v>0.3398978873745135</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M10">
-        <v>0.2237333333333333</v>
+        <v>0.1035233333333333</v>
       </c>
       <c r="N10">
-        <v>0.6712</v>
+        <v>0.31057</v>
       </c>
       <c r="O10">
-        <v>0.01221242386874213</v>
+        <v>0.006040528313704939</v>
       </c>
       <c r="P10">
-        <v>0.01466696067600354</v>
+        <v>0.007268438211862629</v>
       </c>
       <c r="Q10">
-        <v>0.01412010897777778</v>
+        <v>0.05469613907333334</v>
       </c>
       <c r="R10">
-        <v>0.1270809808</v>
+        <v>0.49226525166</v>
       </c>
       <c r="S10">
-        <v>0.004150977072707534</v>
+        <v>0.002546559935873186</v>
       </c>
       <c r="T10">
-        <v>0.004985268947978671</v>
+        <v>0.003796144122309038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H11">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I11">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J11">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.593577999999999</v>
+        <v>6.260847500000001</v>
       </c>
       <c r="N11">
-        <v>15.187156</v>
+        <v>12.521695</v>
       </c>
       <c r="O11">
-        <v>0.4144934142566529</v>
+        <v>0.3653169326548487</v>
       </c>
       <c r="P11">
-        <v>0.3318674312162265</v>
+        <v>0.2930520218156591</v>
       </c>
       <c r="Q11">
-        <v>0.4792408323506667</v>
+        <v>3.307893733235</v>
       </c>
       <c r="R11">
-        <v>2.875444994104</v>
+        <v>19.84736239941</v>
       </c>
       <c r="S11">
-        <v>0.1408854358364854</v>
+        <v>0.1540099501701239</v>
       </c>
       <c r="T11">
-        <v>0.1128010387588021</v>
+        <v>0.1530545734475206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H12">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I12">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J12">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.310623666666667</v>
+        <v>0.6812176666666666</v>
       </c>
       <c r="N12">
-        <v>3.931871</v>
+        <v>2.043653</v>
       </c>
       <c r="O12">
-        <v>0.07154004059775775</v>
+        <v>0.03974866796499352</v>
       </c>
       <c r="P12">
-        <v>0.08591864919564766</v>
+        <v>0.04782871995681392</v>
       </c>
       <c r="Q12">
-        <v>0.08271520710155555</v>
+        <v>0.3599186293126666</v>
       </c>
       <c r="R12">
-        <v>0.744436863914</v>
+        <v>3.239267663814</v>
       </c>
       <c r="S12">
-        <v>0.02431630866186478</v>
+        <v>0.01675720402043676</v>
       </c>
       <c r="T12">
-        <v>0.02920356734767259</v>
+        <v>0.0249798799754942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,55 +1216,55 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H13">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I13">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J13">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.05015166666666667</v>
+        <v>0.1296543333333333</v>
       </c>
       <c r="N13">
-        <v>0.150455</v>
+        <v>0.388963</v>
       </c>
       <c r="O13">
-        <v>0.002737515246084025</v>
+        <v>0.007565257476522569</v>
       </c>
       <c r="P13">
-        <v>0.003287719857729608</v>
+        <v>0.009103112123517158</v>
       </c>
       <c r="Q13">
-        <v>0.003165138552222223</v>
+        <v>0.06850234839933333</v>
       </c>
       <c r="R13">
-        <v>0.02848624697</v>
+        <v>0.616521135594</v>
       </c>
       <c r="S13">
-        <v>0.0009304756487994816</v>
+        <v>0.00318935374420273</v>
       </c>
       <c r="T13">
-        <v>0.00111748903392153</v>
+        <v>0.004754353627992692</v>
       </c>
     </row>
   </sheetData>
